--- a/Excel Data/Misc.xlsx
+++ b/Excel Data/Misc.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.sylvester\Desktop\Skills Site\Olethrus.github.io-main\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.sylvester\Desktop\Personal\Olethrus.github.io\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{448791A0-4BE1-482C-B66A-6AC56AF95BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B904099-1009-4EDE-ACC8-1891DD120921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{3CD03379-D954-4504-8E45-0143CCFCCFBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CD03379-D954-4504-8E45-0143CCFCCFBC}"/>
   </bookViews>
   <sheets>
-    <sheet name="RS500" sheetId="1" r:id="rId1"/>
-    <sheet name="RXLogix 5000 - Studio5000" sheetId="2" r:id="rId2"/>
-    <sheet name="FTViewSE" sheetId="10" r:id="rId3"/>
-    <sheet name="FTViewME" sheetId="11" r:id="rId4"/>
-    <sheet name="Studio 5000 View Designer" sheetId="12" r:id="rId5"/>
-    <sheet name="Plant PAX" sheetId="13" r:id="rId6"/>
+    <sheet name="Soft Skills" sheetId="1" r:id="rId1"/>
+    <sheet name="Red Lion" sheetId="2" r:id="rId2"/>
+    <sheet name="Modbus TCP" sheetId="10" r:id="rId3"/>
+    <sheet name="Motion Control" sheetId="11" r:id="rId4"/>
+    <sheet name="Excel" sheetId="12" r:id="rId5"/>
+    <sheet name="Word" sheetId="13" r:id="rId6"/>
+    <sheet name="Python " sheetId="14" r:id="rId7"/>
+    <sheet name="C++" sheetId="15" r:id="rId8"/>
+    <sheet name="Version Control" sheetId="16" r:id="rId9"/>
+    <sheet name="IDE" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>Skill Name</t>
   </si>
@@ -52,13 +56,196 @@
     <t>Reference Material</t>
   </si>
   <si>
-    <t>Reference Documents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry Example Experience </t>
-  </si>
-  <si>
-    <t>Weight %</t>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Problem Solving</t>
+  </si>
+  <si>
+    <t>Works well under pressure</t>
+  </si>
+  <si>
+    <t>Detail Oriented</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Used crimson software to convert the following protocols&lt;br&gt; Step 7 to Rockwell&lt;br&gt; PCS7 to Rockwell&lt;br&gt; ModbusTCP to Rockwell</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Wrote a generator to take a tag list and map all tags to all of the protocols listed above</t>
+  </si>
+  <si>
+    <t>Holding Registers</t>
+  </si>
+  <si>
+    <t>Coils</t>
+  </si>
+  <si>
+    <t>Floats</t>
+  </si>
+  <si>
+    <t>Address offset</t>
+  </si>
+  <si>
+    <t>Single Axis Servo</t>
+  </si>
+  <si>
+    <t>Tuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup </t>
+  </si>
+  <si>
+    <t>Homing</t>
+  </si>
+  <si>
+    <t>Omron and Rockwell</t>
+  </si>
+  <si>
+    <t>Pivot Table</t>
+  </si>
+  <si>
+    <t>External Data</t>
+  </si>
+  <si>
+    <t>VBA Macros</t>
+  </si>
+  <si>
+    <t>Used for some code generation tools</t>
+  </si>
+  <si>
+    <t>Used to pull in CSV data</t>
+  </si>
+  <si>
+    <t>Used to show time usage for work</t>
+  </si>
+  <si>
+    <t>Create Operator Manuals</t>
+  </si>
+  <si>
+    <t>Create FRS Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have managed employees in the past as many as 12. Made sure employees were happy and well taken care of. Never asked employees to do something I wouldn't do or haven't done. </t>
+  </si>
+  <si>
+    <t>When given a problem I will break down the parts and research it is a bunch of smaller projects to figure things out easier. Also when it requires it I will not hesitate to call for help after I have researched things first myself.</t>
+  </si>
+  <si>
+    <t>Layout tasks to be complete in small chunks to not overwhelm myself. A delta on this for me is I will sometimes take on more than I should in order to help someone out however a goal of mine is to improve this and I am doing better pushing people back to make sure I am delivering a strong product.</t>
+  </si>
+  <si>
+    <t>Prior to my experience in automation I was a chef for many years. I have had over 50 entrées cooking at the same time with a&lt;br&gt;  20 minute max window to complete my tasks. I have been on startups that haven't went well in the past however I was always able to keep my cool and push through and find the solution needed to solve the problem.</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Able to create and know how data gets passed into and returned</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to create a custom function </t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Structures</t>
+  </si>
+  <si>
+    <t>Able to create a custom class</t>
+  </si>
+  <si>
+    <t>Able to create a custom structure</t>
+  </si>
+  <si>
+    <t>GUI Program</t>
+  </si>
+  <si>
+    <t>Able to create a GUI program in this example I used Tkinter</t>
+  </si>
+  <si>
+    <t>Code Generator</t>
+  </si>
+  <si>
+    <t>Black Jack</t>
+  </si>
+  <si>
+    <t>Wrote code generation software using this languages</t>
+  </si>
+  <si>
+    <t>Started a black jack game got as far as creating a deck of cards, bank, double down, split logic. Still need to deal and create players to complete this game then add a GUI to it but have been to busy to complete</t>
+  </si>
+  <si>
+    <t>Fail Safe Code</t>
+  </si>
+  <si>
+    <t>Write code in a way that it is fail safe and a user can't enter incorrect or malicious data</t>
+  </si>
+  <si>
+    <t>Grade Book</t>
+  </si>
+  <si>
+    <t>Wrote a grade book software that would hold grades weight assignments and spit out letter, leader board</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Used as a documentation repository</t>
+  </si>
+  <si>
+    <t>Used for a local repository that is locally on my drive but also stored and replicated multiple places. Able to roll back data, resolve conflicts.</t>
+  </si>
+  <si>
+    <t>VSCode</t>
+  </si>
+  <si>
+    <t>Notepad++</t>
+  </si>
+  <si>
+    <t>Sublime</t>
+  </si>
+  <si>
+    <t>Can import libraries and basic C,C# development</t>
+  </si>
+  <si>
+    <t>Used as a notepad with regex replacement</t>
+  </si>
+  <si>
+    <t>Used as notepad with syntax highlighting and base code examples</t>
+  </si>
+  <si>
+    <t>Can add extensions, create virtual env, import libraries to separate environments, change code versions</t>
+  </si>
+  <si>
+    <t>Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Create Control Narratives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Able to import custom libraries and create libraries of my own </t>
+  </si>
+  <si>
+    <t>Tortoise SVN</t>
   </si>
 </sst>
 </file>
@@ -410,15 +597,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ED91DC-0B56-4060-8DA3-085497884A60}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,13 +622,119 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J2" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Leadership&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Have managed employees in the past as many as 12. Made sure employees were happy and well taken care of. Never asked employees to do something I wouldn't do or haven't done. &lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G5" si="2">_xlfn.CONCAT("&lt;tr&gt;",A3,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Problem Solving&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H5" si="3">_xlfn.CONCAT("&lt;tr&gt;",B3,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;When given a problem I will break down the parts and research it is a bunch of smaller projects to figure things out easier. Also when it requires it I will not hesitate to call for help after I have researched things first myself.&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I5" si="4">_xlfn.CONCAT("&lt;tr&gt;",C3,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J5" si="5">_xlfn.CONCAT("&lt;tr&gt;",D3,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Works well under pressure&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;Prior to my experience in automation I was a chef for many years. I have had over 50 entrées cooking at the same time with a&lt;br&gt;  20 minute max window to complete my tasks. I have been on startups that haven't went well in the past however I was always able to keep my cool and push through and find the solution needed to solve the problem.&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;tr&gt;Detail Oriented&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;tr&gt;Layout tasks to be complete in small chunks to not overwhelm myself. A delta on this for me is I will sometimes take on more than I should in order to help someone out however a goal of mine is to improve this and I am doing better pushing people back to make sure I am delivering a strong product.&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -444,17 +743,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B8F964-F896-413D-8EAD-9ED2DA37D286}">
-  <dimension ref="A1:F1"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1B8E25-624F-48FB-A991-D9FF46F8FA23}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Software&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J5" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;VSCode&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Can add extensions, create virtual env, import libraries to separate environments, change code versions&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Notepad++&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Used as a notepad with regex replacement&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Sublime&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Used as notepad with syntax highlighting and base code examples&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Visual Studio Code&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Can import libraries and basic C,C# development&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B8F964-F896-413D-8EAD-9ED2DA37D286}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,13 +913,71 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J3" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Gateway&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Used crimson software to convert the following protocols&lt;br&gt; Step 7 to Rockwell&lt;br&gt; PCS7 to Rockwell&lt;br&gt; ModbusTCP to Rockwell&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Generator&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Wrote a generator to take a tag list and map all tags to all of the protocols listed above&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -481,48 +987,1097 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B80B91E-2909-4598-8EF2-A61044CF9280}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J3" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Holding Registers&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Coils&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D98AF46-636D-4C35-95B2-6EB85614DA43}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J5" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Single Axis Servo&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Omron and Rockwell&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;70&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Tuning&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Omron and Rockwell&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;35&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Setup &lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Omron and Rockwell&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;35&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Homing&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Omron and Rockwell&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;65&lt;/tr&gt;</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001B3182-7DF3-44C3-8AD5-151E1015ECCE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J4" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Pivot Table&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Used to show time usage for work&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;External Data&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Used to pull in CSV data&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;VBA Macros&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Used for some code generation tools&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D1AC3A-7C83-494F-B32F-A29903C99907}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J4" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Create Operator Manuals&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Create FRS Documents&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Create Control Narratives&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EA9233-3C64-4308-B2C2-34F2462D788B}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J10" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Variables&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create and know how data gets passed into and returned&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Functions&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create a custom function &lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Libraries&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to import custom libraries and create libraries of my own &lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Class&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create a custom class&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Structures&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create a custom structure&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;GUI Program&lt;/tr&gt;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create a GUI program in this example I used Tkinter&lt;/tr&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Code Generator&lt;/tr&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Wrote code generation software using this languages&lt;/tr&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Black Jack&lt;/tr&gt;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Started a black jack game got as far as creating a deck of cards, bank, double down, split logic. Still need to deal and create players to complete this game then add a GUI to it but have been to busy to complete&lt;/tr&gt;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Fail Safe Code&lt;/tr&gt;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Write code in a way that it is fail safe and a user can't enter incorrect or malicious data&lt;/tr&gt;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B586ECE5-E844-421F-B8FA-9DCF08A3CAFC}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="88.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Skill Name&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J9" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Variables&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create and know how data gets passed into and returned&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Functions&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create a custom function &lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Libraries&lt;/tr&gt;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to import custom libraries and create libraries of my own &lt;/tr&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Class&lt;/tr&gt;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create a custom class&lt;/tr&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Structures&lt;/tr&gt;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Able to create a custom structure&lt;/tr&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Code Generator&lt;/tr&gt;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Wrote code generation software using this languages&lt;/tr&gt;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Grade Book&lt;/tr&gt;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Wrote a grade book software that would hold grades weight assignments and spit out letter, leader board&lt;/tr&gt;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Fail Safe Code&lt;/tr&gt;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Write code in a way that it is fail safe and a user can't enter incorrect or malicious data&lt;/tr&gt;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33B42AD-3F66-4AF0-9D8C-C38CE98EE5F9}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("&lt;th&gt;",A1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Software&lt;/th&gt;</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:J1" si="0">_xlfn.CONCAT("&lt;th&gt;",B1,"&lt;/th&gt;")</f>
+        <v>&lt;th&gt;Example Experience&lt;/th&gt;</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Reference Material&lt;/th&gt;</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;th&gt;Proficiency&lt;/th&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:J3" si="1">_xlfn.CONCAT("&lt;tr&gt;",A2,"&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;Tortoise SVN&lt;/tr&gt;</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Used for a local repository that is locally on my drive but also stored and replicated multiple places. Able to roll back data, resolve conflicts.&lt;/tr&gt;</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;45&lt;/tr&gt;</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Git Hub&lt;/tr&gt;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;Used as a documentation repository&lt;/tr&gt;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;10&lt;/tr&gt;</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>